--- a/data/case1/15/P_device_2.xlsx
+++ b/data/case1/15/P_device_2.xlsx
@@ -62,26 +62,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.056458776269805916</v>
+        <v>-0.071696628145104316</v>
       </c>
       <c r="B1" s="0">
-        <v>0.056458775957555107</v>
+        <v>0.071696627025601201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.010126907120820114</v>
+        <v>0.057219944403532008</v>
       </c>
       <c r="B2" s="0">
-        <v>0.010126906810462176</v>
+        <v>-0.057219945564075191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.061222328309029184</v>
+        <v>-0.0136755813339177</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.061222328608351355</v>
+        <v>0.01367558009700863</v>
       </c>
     </row>
     <row r="4">
